--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-route-of-administration.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-route-of-administration.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from EDQM - Standard " r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>Valueset RouteOfAdministration filtered for ambulatory care use.
-This value set is a subset of the mandatory value set ([EDQM - RouteOfAdministration](http://fhir.ch/ig/ch-emed/ValueSet-edqm-routeofadministration.html)) that contains only values compatible with ambulatory care.
+This value set is a subset of the mandatory value set ([EDQM - RouteOfAdministration](http://fhir.ch/ig/ch-term/ValueSet/edqm-routeofadministration)) that contains only values compatible with ambulatory care.
 We recommend implementers to focus on supporting this value set instead of the complete one.</t>
   </si>
   <si>

--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-route-of-administration.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-route-of-administration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
